--- a/biology/Médecine/Prix_Alfred_P._Sloan,_Jr/Prix_Alfred_P._Sloan,_Jr..xlsx
+++ b/biology/Médecine/Prix_Alfred_P._Sloan,_Jr/Prix_Alfred_P._Sloan,_Jr..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prix Alfred P. Sloan, Jr. est un prix de recherche décerné entre 1979 et 2005 par la General Motors Cancer Research Foundation pour des réalisations exceptionnelles dans la recherche fondamentale en oncologie. Le prix, qui porte le nom d'Alfred P. Sloan, était doté de 250 000 dollars américains.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison des difficultés économiques de la société mère, l'attribution du prix Alfred P. Sloan, Jr. a été suspendue en 2005 - tout comme celle du prix Kettering et du prix Charles S. Mott. À la place de ces trois prix, un seul prix - également doté de 250 000 dollars US - a été décerné en 2006 sous le nom de General Motors Cancer Research Award ; le lauréat était Napoleone Ferrara. Aucun autre prix n'a été décerné les années suivantes.
 Quinze des 37 lauréats du prix Alfred P. Sloan, Jr. ont ensuite reçu un prix Nobel, dont treize le prix Nobel de physiologie ou de médecine et deux le prix Nobel de chimie.
@@ -544,7 +558,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1979 George Klein (en)
 1980 Isaac Berenblum (en)
